--- a/scene_cat_exp_2023.2/input_files/9_scenecat_memory_living_rooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/9_scenecat_memory_living_rooms_2.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,29 +497,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_lgxzn.png</t>
+          <t>stimuli/img_pna7l.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>73.11363636363636</v>
+        <v>85.53333333333333</v>
       </c>
       <c r="N2">
-        <v>49.97727272727273</v>
+        <v>67.97777777777777</v>
       </c>
       <c r="O2">
-        <v>61.54545454545455</v>
+        <v>76.75555555555556</v>
       </c>
       <c r="P2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,46 +553,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_rg4in.png</t>
+          <t>stimuli/img_pdzf1.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>49.3695652173913</v>
+        <v>86.23913043478261</v>
       </c>
       <c r="N3">
-        <v>30.21739130434782</v>
+        <v>67.17391304347827</v>
       </c>
       <c r="O3">
-        <v>39.79347826086956</v>
+        <v>76.70652173913044</v>
       </c>
       <c r="P3">
         <v>46</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -614,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -626,46 +621,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_swq34.png</t>
+          <t>stimuli/img_3jnt7.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>64.11363636363636</v>
+        <v>49.52272727272727</v>
       </c>
       <c r="N4">
-        <v>43.04545454545455</v>
+        <v>35.25</v>
       </c>
       <c r="O4">
-        <v>53.57954545454545</v>
+        <v>42.38636363636364</v>
       </c>
       <c r="P4">
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -687,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -699,41 +689,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_7lz7m.png</t>
+          <t>stimuli/img_9oofc.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>51.5531914893617</v>
+        <v>82.47619047619048</v>
       </c>
       <c r="N5">
-        <v>32.87234042553192</v>
+        <v>65.5</v>
       </c>
       <c r="O5">
-        <v>42.21276595744681</v>
+        <v>73.98809523809524</v>
       </c>
       <c r="P5">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -755,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -784,29 +779,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_24rt2.png</t>
+          <t>stimuli/img_2qhro.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>55.26829268292683</v>
+        <v>81.73809523809524</v>
       </c>
       <c r="N6">
-        <v>34.19512195121951</v>
+        <v>62.73809523809524</v>
       </c>
       <c r="O6">
-        <v>44.73170731707317</v>
+        <v>72.23809523809524</v>
       </c>
       <c r="P6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -828,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -857,29 +852,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_of8d6.png</t>
+          <t>stimuli/img_amsgw.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>26.04878048780488</v>
+        <v>86.08510638297872</v>
       </c>
       <c r="N7">
-        <v>19.14634146341463</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="O7">
-        <v>22.59756097560975</v>
+        <v>76.02127659574468</v>
       </c>
       <c r="P7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -901,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -930,29 +925,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_rru0v.png</t>
+          <t>stimuli/img_iudc4.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>56.45238095238095</v>
+        <v>73.625</v>
       </c>
       <c r="N8">
-        <v>39.42857142857143</v>
+        <v>52.275</v>
       </c>
       <c r="O8">
-        <v>47.94047619047619</v>
+        <v>62.95</v>
       </c>
       <c r="P8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -974,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1003,29 +998,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_xr3up.png</t>
+          <t>stimuli/img_rg4in.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>76.24444444444444</v>
+        <v>49.3695652173913</v>
       </c>
       <c r="N9">
-        <v>55.88888888888889</v>
+        <v>30.21739130434782</v>
       </c>
       <c r="O9">
-        <v>66.06666666666666</v>
+        <v>39.79347826086956</v>
       </c>
       <c r="P9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1047,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1076,29 +1071,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_iudc4.png</t>
+          <t>stimuli/img_xr3up.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>73.625</v>
+        <v>76.24444444444444</v>
       </c>
       <c r="N10">
-        <v>52.275</v>
+        <v>55.88888888888889</v>
       </c>
       <c r="O10">
-        <v>62.95</v>
+        <v>66.06666666666666</v>
       </c>
       <c r="P10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1120,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1149,29 +1144,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_9oofc.png</t>
+          <t>stimuli/img_zxvl3.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>82.47619047619048</v>
+        <v>68.78260869565217</v>
       </c>
       <c r="N11">
-        <v>65.5</v>
+        <v>47.56521739130435</v>
       </c>
       <c r="O11">
-        <v>73.98809523809524</v>
+        <v>58.17391304347827</v>
       </c>
       <c r="P11">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1193,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1212,7 +1207,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/catch_17.jpg</t>
+          <t>stimuli/catch_10.jpg</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1230,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1247,41 +1242,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_3jnt7.png</t>
+          <t>stimuli/img_of8d6.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>49.52272727272727</v>
+        <v>26.04878048780488</v>
       </c>
       <c r="N13">
-        <v>35.25</v>
+        <v>19.14634146341463</v>
       </c>
       <c r="O13">
-        <v>42.38636363636364</v>
+        <v>22.59756097560975</v>
       </c>
       <c r="P13">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1303,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1315,41 +1315,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_qdln8.png</t>
+          <t>stimuli/img_vh7v8.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>85.51162790697674</v>
+        <v>78.70454545454545</v>
       </c>
       <c r="N14">
-        <v>67.86046511627907</v>
+        <v>59.63636363636363</v>
       </c>
       <c r="O14">
-        <v>76.68604651162791</v>
+        <v>69.17045454545455</v>
       </c>
       <c r="P14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S14">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1371,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1400,29 +1405,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_zxvl3.png</t>
+          <t>stimuli/img_ra2nm.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>68.78260869565217</v>
+        <v>70.75</v>
       </c>
       <c r="N15">
-        <v>47.56521739130435</v>
+        <v>50.375</v>
       </c>
       <c r="O15">
-        <v>58.17391304347827</v>
+        <v>60.5625</v>
       </c>
       <c r="P15">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1444,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1473,29 +1478,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_rych7.png</t>
+          <t>stimuli/img_j4ttn.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>30.4468085106383</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="N16">
-        <v>23.4468085106383</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="O16">
-        <v>26.9468085106383</v>
+        <v>12.02380952380952</v>
       </c>
       <c r="P16">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1517,7 +1522,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1546,29 +1551,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_2qhro.png</t>
+          <t>stimuli/img_syam3.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>81.73809523809524</v>
+        <v>41.32432432432432</v>
       </c>
       <c r="N17">
-        <v>62.73809523809524</v>
+        <v>26.2972972972973</v>
       </c>
       <c r="O17">
-        <v>72.23809523809524</v>
+        <v>33.81081081081081</v>
       </c>
       <c r="P17">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1590,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1614,20 +1619,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_bf8nx.png</t>
+          <t>stimuli/img_qdln8.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>86.63414634146342</v>
+        <v>85.51162790697674</v>
       </c>
       <c r="N18">
-        <v>66.63414634146342</v>
+        <v>67.86046511627907</v>
       </c>
       <c r="O18">
-        <v>76.63414634146342</v>
+        <v>76.68604651162791</v>
       </c>
       <c r="P18">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -1658,7 +1663,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1670,46 +1675,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_kq9s9.png</t>
+          <t>stimuli/img_lgxzn.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>62.30232558139535</v>
+        <v>73.11363636363636</v>
       </c>
       <c r="N19">
-        <v>39.97674418604651</v>
+        <v>49.97727272727273</v>
       </c>
       <c r="O19">
-        <v>51.13953488372093</v>
+        <v>61.54545454545455</v>
       </c>
       <c r="P19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1731,7 +1731,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1760,29 +1760,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_ac0ey.png</t>
+          <t>stimuli/img_rru0v.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>86.62222222222222</v>
+        <v>56.45238095238095</v>
       </c>
       <c r="N20">
-        <v>70.02222222222223</v>
+        <v>39.42857142857143</v>
       </c>
       <c r="O20">
-        <v>78.32222222222222</v>
+        <v>47.94047619047619</v>
       </c>
       <c r="P20">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1804,7 +1804,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1833,29 +1833,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_tn8ys.png</t>
+          <t>stimuli/img_24rt2.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>86.70454545454545</v>
+        <v>55.26829268292683</v>
       </c>
       <c r="N21">
-        <v>72.40909090909091</v>
+        <v>34.19512195121951</v>
       </c>
       <c r="O21">
-        <v>79.55681818181819</v>
+        <v>44.73170731707317</v>
       </c>
       <c r="P21">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1877,7 +1877,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1906,29 +1906,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_syam3.png</t>
+          <t>stimuli/img_ac0ey.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>41.32432432432432</v>
+        <v>86.62222222222222</v>
       </c>
       <c r="N22">
-        <v>26.2972972972973</v>
+        <v>70.02222222222223</v>
       </c>
       <c r="O22">
-        <v>33.81081081081081</v>
+        <v>78.32222222222222</v>
       </c>
       <c r="P22">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1950,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1962,41 +1962,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_pna7l.png</t>
+          <t>stimuli/img_vgh2g.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>85.53333333333333</v>
+        <v>93.81395348837209</v>
       </c>
       <c r="N23">
-        <v>67.97777777777777</v>
+        <v>78.27906976744185</v>
       </c>
       <c r="O23">
-        <v>76.75555555555556</v>
+        <v>86.04651162790697</v>
       </c>
       <c r="P23">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2018,7 +2023,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2047,29 +2052,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_vh7v8.png</t>
+          <t>stimuli/img_kq9s9.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>78.70454545454545</v>
+        <v>62.30232558139535</v>
       </c>
       <c r="N24">
-        <v>59.63636363636363</v>
+        <v>39.97674418604651</v>
       </c>
       <c r="O24">
-        <v>69.17045454545455</v>
+        <v>51.13953488372093</v>
       </c>
       <c r="P24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2091,7 +2096,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2103,46 +2108,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_amsgw.png</t>
+          <t>stimuli/img_7lz7m.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>86.08510638297872</v>
+        <v>51.5531914893617</v>
       </c>
       <c r="N25">
-        <v>65.95744680851064</v>
+        <v>32.87234042553192</v>
       </c>
       <c r="O25">
-        <v>76.02127659574468</v>
+        <v>42.21276595744681</v>
       </c>
       <c r="P25">
         <v>47</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2164,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2193,29 +2193,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_ra2nm.png</t>
+          <t>stimuli/img_tn8ys.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>70.75</v>
+        <v>86.70454545454545</v>
       </c>
       <c r="N26">
-        <v>50.375</v>
+        <v>72.40909090909091</v>
       </c>
       <c r="O26">
-        <v>60.5625</v>
+        <v>79.55681818181819</v>
       </c>
       <c r="P26">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S26">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2237,7 +2237,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2266,29 +2266,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_vgh2g.png</t>
+          <t>stimuli/img_swq34.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>93.81395348837209</v>
+        <v>64.11363636363636</v>
       </c>
       <c r="N27">
-        <v>78.27906976744185</v>
+        <v>43.04545454545455</v>
       </c>
       <c r="O27">
-        <v>86.04651162790697</v>
+        <v>53.57954545454545</v>
       </c>
       <c r="P27">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2310,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2334,20 +2334,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_pdzf1.png</t>
+          <t>stimuli/img_bf8nx.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>86.23913043478261</v>
+        <v>86.63414634146342</v>
       </c>
       <c r="N28">
-        <v>67.17391304347827</v>
+        <v>66.63414634146342</v>
       </c>
       <c r="O28">
-        <v>76.70652173913044</v>
+        <v>76.63414634146342</v>
       </c>
       <c r="P28">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -2378,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2407,29 +2407,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_j4ttn.png</t>
+          <t>stimuli/img_rych7.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>12.61904761904762</v>
+        <v>30.4468085106383</v>
       </c>
       <c r="N29">
-        <v>11.42857142857143</v>
+        <v>23.4468085106383</v>
       </c>
       <c r="O29">
-        <v>12.02380952380952</v>
+        <v>26.9468085106383</v>
       </c>
       <c r="P29">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/9_scenecat_memory_living_rooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/9_scenecat_memory_living_rooms_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -485,41 +485,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_pna7l.png</t>
+          <t>stimuli/img_pey7u.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>85.53333333333333</v>
+        <v>30.34883720930232</v>
       </c>
       <c r="N2">
-        <v>67.97777777777777</v>
+        <v>20.34883720930232</v>
       </c>
       <c r="O2">
-        <v>76.75555555555556</v>
+        <v>25.34883720930232</v>
       </c>
       <c r="P2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +537,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -541,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,41 +558,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_pdzf1.png</t>
+          <t>stimuli/img_bbs77.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>86.23913043478261</v>
+        <v>31.64444444444445</v>
       </c>
       <c r="N3">
-        <v>67.17391304347827</v>
+        <v>21.26666666666667</v>
       </c>
       <c r="O3">
-        <v>76.70652173913044</v>
+        <v>26.45555555555556</v>
       </c>
       <c r="P3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -600,62 +610,67 @@
         </is>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>163</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>stimuli/img_abobq.png</t>
+        </is>
+      </c>
+      <c r="M4">
+        <v>75.18421052631579</v>
+      </c>
+      <c r="N4">
+        <v>54.13157894736842</v>
+      </c>
+      <c r="O4">
+        <v>64.65789473684211</v>
+      </c>
+      <c r="P4">
+        <v>38</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>299</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>stimuli/img_3jnt7.png</t>
-        </is>
-      </c>
-      <c r="M4">
-        <v>49.52272727272727</v>
-      </c>
-      <c r="N4">
-        <v>35.25</v>
-      </c>
-      <c r="O4">
-        <v>42.38636363636364</v>
-      </c>
-      <c r="P4">
-        <v>44</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
       <c r="R4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -668,7 +683,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -677,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -706,29 +721,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_9oofc.png</t>
+          <t>stimuli/img_eh0no.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>82.47619047619048</v>
+        <v>53.66666666666666</v>
       </c>
       <c r="N5">
-        <v>65.5</v>
+        <v>36.02564102564103</v>
       </c>
       <c r="O5">
-        <v>73.98809523809524</v>
+        <v>44.84615384615385</v>
       </c>
       <c r="P5">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -741,7 +756,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -750,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,37 +777,32 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_2qhro.png</t>
+          <t>stimuli/img_89dvt.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>81.73809523809524</v>
+        <v>81.09756097560975</v>
       </c>
       <c r="N6">
-        <v>62.73809523809524</v>
+        <v>64.6829268292683</v>
       </c>
       <c r="O6">
-        <v>72.23809523809524</v>
+        <v>72.89024390243902</v>
       </c>
       <c r="P6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -814,7 +824,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -823,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -835,46 +845,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_amsgw.png</t>
+          <t>stimuli/img_314bq.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>86.08510638297872</v>
+        <v>37.08888888888889</v>
       </c>
       <c r="N7">
-        <v>65.95744680851064</v>
+        <v>20.04444444444444</v>
       </c>
       <c r="O7">
-        <v>76.02127659574468</v>
+        <v>28.56666666666667</v>
       </c>
       <c r="P7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -887,7 +892,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -896,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -908,46 +913,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_iudc4.png</t>
+          <t>stimuli/img_0jzz7.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>73.625</v>
+        <v>84.85106382978724</v>
       </c>
       <c r="N8">
-        <v>52.275</v>
+        <v>68.87234042553192</v>
       </c>
       <c r="O8">
-        <v>62.95</v>
+        <v>76.86170212765958</v>
       </c>
       <c r="P8">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -981,46 +981,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_rg4in.png</t>
+          <t>stimuli/img_il020.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>49.3695652173913</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="N9">
-        <v>30.21739130434782</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="O9">
-        <v>39.79347826086956</v>
+        <v>17.51041666666667</v>
       </c>
       <c r="P9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1033,7 +1028,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1042,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1054,46 +1049,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_xr3up.png</t>
+          <t>stimuli/img_15bss.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>76.24444444444444</v>
+        <v>88.42222222222222</v>
       </c>
       <c r="N10">
-        <v>55.88888888888889</v>
+        <v>75.35555555555555</v>
       </c>
       <c r="O10">
-        <v>66.06666666666666</v>
+        <v>81.88888888888889</v>
       </c>
       <c r="P10">
         <v>45</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1096,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1115,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1127,46 +1117,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_zxvl3.png</t>
+          <t>stimuli/img_3jnt7.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>68.78260869565217</v>
+        <v>49.52272727272727</v>
       </c>
       <c r="N11">
-        <v>47.56521739130435</v>
+        <v>35.25</v>
       </c>
       <c r="O11">
-        <v>58.17391304347827</v>
+        <v>42.38636363636364</v>
       </c>
       <c r="P11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1179,7 +1164,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1188,27 +1173,58 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>307</v>
+        <v>171</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/catch_10.jpg</t>
-        </is>
+          <t>stimuli/img_6a0hu.png</t>
+        </is>
+      </c>
+      <c r="M12">
+        <v>61.275</v>
+      </c>
+      <c r="N12">
+        <v>42.025</v>
+      </c>
+      <c r="O12">
+        <v>51.65</v>
+      </c>
+      <c r="P12">
+        <v>40</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1221,7 +1237,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1230,7 +1246,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1242,37 +1258,32 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_of8d6.png</t>
+          <t>stimuli/img_b17ma.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>26.04878048780488</v>
+        <v>23.0625</v>
       </c>
       <c r="N13">
-        <v>19.14634146341463</v>
+        <v>13.375</v>
       </c>
       <c r="O13">
-        <v>22.59756097560975</v>
+        <v>18.21875</v>
       </c>
       <c r="P13">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1294,7 +1305,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1303,7 +1314,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1315,46 +1326,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_vh7v8.png</t>
+          <t>stimuli/img_emh91.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>78.70454545454545</v>
+        <v>82.06666666666666</v>
       </c>
       <c r="N14">
-        <v>59.63636363636363</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="O14">
-        <v>69.17045454545455</v>
+        <v>72.7</v>
       </c>
       <c r="P14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1367,7 +1373,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1376,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1388,46 +1394,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_ra2nm.png</t>
+          <t>stimuli/img_dg5h7.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>70.75</v>
+        <v>88.72093023255815</v>
       </c>
       <c r="N15">
-        <v>50.375</v>
+        <v>76.06976744186046</v>
       </c>
       <c r="O15">
-        <v>60.5625</v>
+        <v>82.3953488372093</v>
       </c>
       <c r="P15">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1440,7 +1441,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1449,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1461,46 +1462,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_j4ttn.png</t>
+          <t>stimuli/img_f63yi.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>12.61904761904762</v>
+        <v>85.27500000000001</v>
       </c>
       <c r="N16">
-        <v>11.42857142857143</v>
+        <v>68.47499999999999</v>
       </c>
       <c r="O16">
-        <v>12.02380952380952</v>
+        <v>76.875</v>
       </c>
       <c r="P16">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1513,7 +1509,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1522,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1534,46 +1530,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_syam3.png</t>
+          <t>stimuli/img_fmgjx.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>41.32432432432432</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="N17">
-        <v>26.2972972972973</v>
+        <v>56.975</v>
       </c>
       <c r="O17">
-        <v>33.81081081081081</v>
+        <v>68.4375</v>
       </c>
       <c r="P17">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1586,7 +1577,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1595,7 +1586,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1607,41 +1598,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_qdln8.png</t>
+          <t>stimuli/img_xy930.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>85.51162790697674</v>
+        <v>70.5952380952381</v>
       </c>
       <c r="N18">
-        <v>67.86046511627907</v>
+        <v>49.47619047619047</v>
       </c>
       <c r="O18">
-        <v>76.68604651162791</v>
+        <v>60.03571428571429</v>
       </c>
       <c r="P18">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1654,7 +1650,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1663,7 +1659,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1687,29 +1683,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_lgxzn.png</t>
+          <t>stimuli/img_pjfx6.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>73.11363636363636</v>
+        <v>32.23404255319149</v>
       </c>
       <c r="N19">
-        <v>49.97727272727273</v>
+        <v>26.59574468085106</v>
       </c>
       <c r="O19">
-        <v>61.54545454545455</v>
+        <v>29.41489361702127</v>
       </c>
       <c r="P19">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1722,7 +1718,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1731,7 +1727,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1760,29 +1756,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_rru0v.png</t>
+          <t>stimuli/img_0kqc0.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>56.45238095238095</v>
+        <v>43.74468085106383</v>
       </c>
       <c r="N20">
-        <v>39.42857142857143</v>
+        <v>27.14893617021277</v>
       </c>
       <c r="O20">
-        <v>47.94047619047619</v>
+        <v>35.4468085106383</v>
       </c>
       <c r="P20">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1795,7 +1791,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1804,7 +1800,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1833,29 +1829,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_24rt2.png</t>
+          <t>stimuli/img_kost0.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>55.26829268292683</v>
+        <v>63.09090909090909</v>
       </c>
       <c r="N21">
-        <v>34.19512195121951</v>
+        <v>42.77272727272727</v>
       </c>
       <c r="O21">
-        <v>44.73170731707317</v>
+        <v>52.93181818181819</v>
       </c>
       <c r="P21">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1868,7 +1864,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1877,7 +1873,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>317</v>
+        <v>181</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1889,46 +1885,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_ac0ey.png</t>
+          <t>stimuli/img_s2zoe.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>86.62222222222222</v>
+        <v>64.71428571428571</v>
       </c>
       <c r="N22">
-        <v>70.02222222222223</v>
+        <v>44.90476190476191</v>
       </c>
       <c r="O22">
-        <v>78.32222222222222</v>
+        <v>54.80952380952381</v>
       </c>
       <c r="P22">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +1932,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1950,7 +1941,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>318</v>
+        <v>182</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1962,46 +1953,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_vgh2g.png</t>
+          <t>stimuli/img_lgxzn.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>93.81395348837209</v>
+        <v>73.11363636363636</v>
       </c>
       <c r="N23">
-        <v>78.27906976744185</v>
+        <v>49.97727272727273</v>
       </c>
       <c r="O23">
-        <v>86.04651162790697</v>
+        <v>61.54545454545455</v>
       </c>
       <c r="P23">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2014,7 +2000,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2023,7 +2009,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2035,46 +2021,41 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_kq9s9.png</t>
+          <t>stimuli/img_qrc78.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>62.30232558139535</v>
+        <v>76.2</v>
       </c>
       <c r="N24">
-        <v>39.97674418604651</v>
+        <v>59.875</v>
       </c>
       <c r="O24">
-        <v>51.13953488372093</v>
+        <v>68.03749999999999</v>
       </c>
       <c r="P24">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2087,7 +2068,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2096,7 +2077,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2120,29 +2101,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_7lz7m.png</t>
+          <t>stimuli/img_zh8ms.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>51.5531914893617</v>
+        <v>59.82608695652174</v>
       </c>
       <c r="N25">
-        <v>32.87234042553192</v>
+        <v>39.43478260869565</v>
       </c>
       <c r="O25">
-        <v>42.21276595744681</v>
+        <v>49.6304347826087</v>
       </c>
       <c r="P25">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2155,7 +2136,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2164,7 +2145,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2193,29 +2174,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_tn8ys.png</t>
+          <t>stimuli/img_cehin.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>86.70454545454545</v>
+        <v>78.86363636363636</v>
       </c>
       <c r="N26">
-        <v>72.40909090909091</v>
+        <v>60.02272727272727</v>
       </c>
       <c r="O26">
-        <v>79.55681818181819</v>
+        <v>69.44318181818181</v>
       </c>
       <c r="P26">
         <v>44</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S26">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2228,7 +2209,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2237,7 +2218,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2266,29 +2247,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_swq34.png</t>
+          <t>stimuli/img_di6f0.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>64.11363636363636</v>
+        <v>94.04347826086956</v>
       </c>
       <c r="N27">
-        <v>43.04545454545455</v>
+        <v>83.34782608695652</v>
       </c>
       <c r="O27">
-        <v>53.57954545454545</v>
+        <v>88.69565217391303</v>
       </c>
       <c r="P27">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2301,7 +2282,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2310,7 +2291,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2322,41 +2303,46 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_bf8nx.png</t>
+          <t>stimuli/img_xbtev.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>86.63414634146342</v>
+        <v>13.68181818181818</v>
       </c>
       <c r="N28">
-        <v>66.63414634146342</v>
+        <v>8.568181818181818</v>
       </c>
       <c r="O28">
-        <v>76.63414634146342</v>
+        <v>11.125</v>
       </c>
       <c r="P28">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2355,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2378,7 +2364,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2407,29 +2393,927 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_rych7.png</t>
+          <t>stimuli/img_4o8l0.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>30.4468085106383</v>
+        <v>46.02173913043478</v>
       </c>
       <c r="N29">
-        <v>23.4468085106383</v>
+        <v>31.45652173913043</v>
       </c>
       <c r="O29">
-        <v>26.9468085106383</v>
+        <v>38.73913043478261</v>
       </c>
       <c r="P29">
+        <v>46</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>189</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/catch_09.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>190</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/img_7lz7m.png</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>51.5531914893617</v>
+      </c>
+      <c r="N31">
+        <v>32.87234042553192</v>
+      </c>
+      <c r="O31">
+        <v>42.21276595744681</v>
+      </c>
+      <c r="P31">
         <v>47</v>
       </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="R29">
-        <v>2</v>
-      </c>
-      <c r="S29">
-        <v>2</v>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>191</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/img_w8yhd.png</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>55.74418604651163</v>
+      </c>
+      <c r="N32">
+        <v>38.90697674418605</v>
+      </c>
+      <c r="O32">
+        <v>47.32558139534883</v>
+      </c>
+      <c r="P32">
+        <v>43</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>192</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>stimuli/img_6zz63.png</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>87.66666666666667</v>
+      </c>
+      <c r="N33">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="O33">
+        <v>79.13333333333333</v>
+      </c>
+      <c r="P33">
+        <v>45</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>193</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>stimuli/img_5mw7y.png</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>72.65909090909091</v>
+      </c>
+      <c r="N34">
+        <v>50.86363636363637</v>
+      </c>
+      <c r="O34">
+        <v>61.76136363636364</v>
+      </c>
+      <c r="P34">
+        <v>44</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>194</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>stimuli/img_amsgw.png</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>86.08510638297872</v>
+      </c>
+      <c r="N35">
+        <v>65.95744680851064</v>
+      </c>
+      <c r="O35">
+        <v>76.02127659574468</v>
+      </c>
+      <c r="P35">
+        <v>47</v>
+      </c>
+      <c r="Q35">
+        <v>9</v>
+      </c>
+      <c r="R35">
+        <v>9</v>
+      </c>
+      <c r="S35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>195</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>stimuli/img_lpas9.png</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>59.36585365853659</v>
+      </c>
+      <c r="N36">
+        <v>39.09756097560975</v>
+      </c>
+      <c r="O36">
+        <v>49.23170731707317</v>
+      </c>
+      <c r="P36">
+        <v>41</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>196</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/img_bj99b.png</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>82.79069767441861</v>
+      </c>
+      <c r="N37">
+        <v>65.46511627906976</v>
+      </c>
+      <c r="O37">
+        <v>74.12790697674419</v>
+      </c>
+      <c r="P37">
+        <v>43</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>8</v>
+      </c>
+      <c r="S37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>197</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>stimuli/img_wgkqa.png</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>87.25581395348837</v>
+      </c>
+      <c r="N38">
+        <v>71.13953488372093</v>
+      </c>
+      <c r="O38">
+        <v>79.19767441860465</v>
+      </c>
+      <c r="P38">
+        <v>43</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>198</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>stimuli/img_eiu3c.png</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>65.15909090909091</v>
+      </c>
+      <c r="N39">
+        <v>46.22727272727273</v>
+      </c>
+      <c r="O39">
+        <v>55.69318181818181</v>
+      </c>
+      <c r="P39">
+        <v>44</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>5</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>199</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>stimuli/img_wz6x5.png</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>68.3695652173913</v>
+      </c>
+      <c r="N40">
+        <v>48.47826086956522</v>
+      </c>
+      <c r="O40">
+        <v>58.42391304347826</v>
+      </c>
+      <c r="P40">
+        <v>46</v>
+      </c>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>200</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>stimuli/img_xu1p3.png</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>75.27659574468085</v>
+      </c>
+      <c r="N41">
+        <v>56.68085106382978</v>
+      </c>
+      <c r="O41">
+        <v>65.97872340425532</v>
+      </c>
+      <c r="P41">
+        <v>47</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>201</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>stimuli/img_16kib.png</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>80.97727272727273</v>
+      </c>
+      <c r="N42">
+        <v>61.11363636363637</v>
+      </c>
+      <c r="O42">
+        <v>71.04545454545455</v>
+      </c>
+      <c r="P42">
+        <v>44</v>
+      </c>
+      <c r="Q42">
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <v>8</v>
+      </c>
+      <c r="S42">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
